--- a/vitger_crm-framework/src/test/resources/TestData.xlsx
+++ b/vitger_crm-framework/src/test/resources/TestData.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asjad\OneDrive\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B5472E-1DC1-4A93-92B1-3D19514DFF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9C92CD7B-F5CD-4A26-A4C9-D1441F5A3A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C1B19C29-51A4-447D-9200-93D62D81257F}"/>
   </bookViews>
@@ -16,7 +11,8 @@
     <sheet name="Organizations" sheetId="1" r:id="rId1"/>
     <sheet name="Contacts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:T9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
